--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\School\CSC 4350 SE\Project Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fergus\Github\PhoenixHotel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="35">
   <si>
     <t>Start Date: 
 August 22, 2016</t>
@@ -111,16 +111,25 @@
     <t>Document 6</t>
   </si>
   <si>
-    <t>Andrew: Source Code</t>
-  </si>
-  <si>
-    <t>Ryan: Source Code</t>
-  </si>
-  <si>
-    <t>Devidas: Source Code</t>
-  </si>
-  <si>
-    <t>Viraj: Source Code</t>
+    <t>Andrew: Source Code, Test Case,</t>
+  </si>
+  <si>
+    <t>COCOMO</t>
+  </si>
+  <si>
+    <t>Ryan: Source Code, Test Case</t>
+  </si>
+  <si>
+    <t>Devidas: Source Code, Test Case</t>
+  </si>
+  <si>
+    <t>Viraj: Source Code, Test Case</t>
+  </si>
+  <si>
+    <t>Fergus: Source Code, Test Case,</t>
+  </si>
+  <si>
+    <t>RTM, Gantt, WSD</t>
   </si>
 </sst>
 </file>
@@ -383,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -440,6 +449,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Filled Chart" xfId="1"/>
@@ -721,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ52"/>
+  <dimension ref="A1:AQ54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="AM34" sqref="AM34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="AG51" sqref="AG51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -1664,79 +1676,136 @@
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="5"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K48" s="16"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
+      <c r="A48" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G48"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="V48" s="5"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K49" s="16"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="16"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="33"/>
+      <c r="V50" s="5"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K50" s="16"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-    </row>
-    <row r="51" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
+      <c r="K51" s="16"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="17"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="K52" s="16"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+    </row>
+    <row r="53" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="22"/>
+      <c r="W53" s="22"/>
+      <c r="X53" s="22"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="17"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="K54" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="43">
   <si>
     <t>Start Date: 
 August 22, 2016</t>
@@ -130,6 +130,30 @@
   </si>
   <si>
     <t>RTM, Gantt, WSD</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Final Code</t>
+  </si>
+  <si>
+    <t>Final Document</t>
+  </si>
+  <si>
+    <t>Fergus: Preparation</t>
+  </si>
+  <si>
+    <t>Andrew: Preparation</t>
+  </si>
+  <si>
+    <t>Ryan: Preparation</t>
+  </si>
+  <si>
+    <t>Devidas: Preparation</t>
+  </si>
+  <si>
+    <t>Viraj: Slide Deck, Preparation</t>
   </si>
 </sst>
 </file>
@@ -181,7 +205,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -208,10 +232,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
+      </right>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -224,37 +248,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -281,19 +274,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -302,19 +282,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -364,10 +331,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -376,29 +343,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -406,52 +359,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Filled Chart" xfId="1"/>
@@ -733,101 +683,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ54"/>
+  <dimension ref="A1:AQ86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="AG51" sqref="AG51"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="Z77" sqref="A56:Z77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
-    <col min="2" max="2" width="2.77734375" style="14" customWidth="1"/>
-    <col min="3" max="5" width="2.77734375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="2.77734375" style="16" customWidth="1"/>
-    <col min="7" max="11" width="2.77734375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="2.77734375" style="14" customWidth="1"/>
-    <col min="13" max="15" width="2.77734375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="2.77734375" style="16" customWidth="1"/>
-    <col min="17" max="20" width="2.77734375" style="5" customWidth="1"/>
-    <col min="21" max="21" width="2.77734375" style="16" customWidth="1"/>
-    <col min="22" max="22" width="2.77734375" style="14" customWidth="1"/>
-    <col min="23" max="25" width="2.77734375" style="5" customWidth="1"/>
-    <col min="26" max="26" width="2.77734375" style="16" customWidth="1"/>
-    <col min="27" max="35" width="2.77734375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" style="10" customWidth="1"/>
+    <col min="2" max="5" width="2.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="2.77734375" style="10" customWidth="1"/>
+    <col min="7" max="10" width="2.77734375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="2.77734375" style="10" customWidth="1"/>
+    <col min="12" max="15" width="2.77734375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="2.77734375" style="10" customWidth="1"/>
+    <col min="17" max="20" width="2.77734375" style="4" customWidth="1"/>
+    <col min="21" max="21" width="2.77734375" style="10" customWidth="1"/>
+    <col min="22" max="25" width="2.77734375" style="4" customWidth="1"/>
+    <col min="26" max="26" width="2.77734375" style="10" customWidth="1"/>
+    <col min="27" max="35" width="2.77734375" style="4" customWidth="1"/>
     <col min="36" max="43" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="30.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="17"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="11"/>
       <c r="AA1"/>
     </row>
     <row r="2" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="16">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="25">
-        <v>2</v>
-      </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="24">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="16">
+        <v>2</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="16">
         <v>3</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="25">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="16">
         <v>4</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="24">
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="16">
         <v>5</v>
       </c>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="26"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="17"/>
       <c r="AA2"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
@@ -836,424 +784,424 @@
       <c r="AQ2" s="1"/>
     </row>
     <row r="3" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="H3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="10" t="s">
+      <c r="J3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="11" t="s">
+      <c r="O3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="10" t="s">
+      <c r="R3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="11" t="s">
+      <c r="T3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="X3" s="10" t="s">
+      <c r="W3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Y3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="11" t="s">
+      <c r="Y3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="AA3"/>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="13"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="9"/>
       <c r="AA4"/>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
       <c r="AA5"/>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
       <c r="AA6"/>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
       <c r="AA7"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
       <c r="AA8"/>
     </row>
     <row r="9" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="17"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="11"/>
       <c r="AA9"/>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="13"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="9"/>
       <c r="AA10"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
       <c r="AA11"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
       <c r="AA12"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
       <c r="AA13"/>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
       <c r="AA14"/>
     </row>
     <row r="15" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="17"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="11"/>
       <c r="AA15"/>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="20"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="13"/>
       <c r="AA16"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="V17" s="18"/>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="20"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="13"/>
       <c r="AA17"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="V18" s="18"/>
-      <c r="W18" s="19"/>
-      <c r="X18" s="19"/>
-      <c r="Y18" s="19"/>
-      <c r="Z18" s="20"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="13"/>
       <c r="AA18"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="V19" s="18"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="19"/>
-      <c r="Y19" s="19"/>
-      <c r="Z19" s="20"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="13"/>
       <c r="AA19"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="V20" s="18"/>
-      <c r="W20" s="19"/>
-      <c r="X20" s="19"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="20"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="13"/>
       <c r="AA20"/>
     </row>
     <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="23"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="15"/>
       <c r="AA21"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
@@ -1266,546 +1214,1140 @@
       <c r="AA24"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="17"/>
+      <c r="A25" s="26">
+        <v>42639</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="11"/>
       <c r="AA25"/>
     </row>
     <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="16">
         <v>6</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="25">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="16">
         <v>7</v>
       </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="24">
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="16">
         <v>8</v>
       </c>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="25">
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="16">
         <v>9</v>
       </c>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="25"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="24">
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="16">
         <v>10</v>
       </c>
-      <c r="W26" s="25"/>
-      <c r="X26" s="25"/>
-      <c r="Y26" s="25"/>
-      <c r="Z26" s="26"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="17"/>
     </row>
     <row r="27" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="28" t="s">
+      <c r="C27" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="11" t="s">
+      <c r="E27" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I27" s="3" t="s">
+      <c r="H27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K27" s="3" t="s">
+      <c r="J27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M27" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="N27" s="10" t="s">
+      <c r="M27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="P27" s="11" t="s">
+      <c r="O27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P27" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q27" s="10" t="s">
+      <c r="Q27" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R27" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="S27" s="10" t="s">
+      <c r="R27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="T27" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="U27" s="11" t="s">
+      <c r="T27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U27" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="V27" s="9" t="s">
+      <c r="V27" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="W27" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="X27" s="10" t="s">
+      <c r="W27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="Y27" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z27" s="11" t="s">
+      <c r="Y27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="13"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="9"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="17"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="11"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="25" t="s">
         <v>24</v>
       </c>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
-      <c r="K34"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="17"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="11"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="25" t="s">
         <v>25</v>
       </c>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
-      <c r="K40"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K41" s="20"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="10" t="s">
         <v>6</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
-      <c r="K42"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43" s="18"/>
+      <c r="L43" s="12"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
-      <c r="K44"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="17"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="11"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="25" t="s">
         <v>27</v>
       </c>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
-      <c r="K46"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="5"/>
+      <c r="U46" s="9"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
-      <c r="K47"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7"/>
-      <c r="X47" s="7"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="20" t="s">
         <v>34</v>
       </c>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
-      <c r="K48"/>
-      <c r="V48" s="5"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K49" s="16"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="7"/>
-      <c r="X49" s="7"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K50" s="16"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="33"/>
-      <c r="V50" s="5"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="20"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K51" s="16"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="7"/>
-      <c r="X51" s="7"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
+      <c r="O51" s="12"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K52" s="16"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="7"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="22"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="22"/>
-      <c r="W53" s="22"/>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="17"/>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="K54" s="16"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="14"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="11"/>
+    </row>
+    <row r="57" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="27"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="11"/>
+    </row>
+    <row r="58" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="16">
+        <v>11</v>
+      </c>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="16">
+        <v>12</v>
+      </c>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="16">
+        <v>13</v>
+      </c>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="16">
+        <v>14</v>
+      </c>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="17"/>
+      <c r="V58" s="16">
+        <v>15</v>
+      </c>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
+      <c r="Y58" s="16"/>
+      <c r="Z58" s="17"/>
+    </row>
+    <row r="59" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P59" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R59" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T59" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U59" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W59" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X59" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y59" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z59" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="Z60" s="9"/>
+    </row>
+    <row r="61" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="Z61" s="10"/>
+    </row>
+    <row r="62" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="Z62" s="10"/>
+    </row>
+    <row r="63" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="Z63" s="10"/>
+    </row>
+    <row r="64" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="Z64" s="10"/>
+    </row>
+    <row r="65" spans="1:31" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="11"/>
+      <c r="U65" s="11"/>
+      <c r="Z65" s="11"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A66" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="13"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="13"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="13"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="13"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="13"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="13"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="13"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+    </row>
+    <row r="71" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="13"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="13"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+    </row>
+    <row r="72" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="Z72" s="9"/>
+    </row>
+    <row r="73" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="Z73" s="10"/>
+    </row>
+    <row r="74" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="13"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="Z74" s="10"/>
+    </row>
+    <row r="75" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="Z75" s="10"/>
+    </row>
+    <row r="76" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="13"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="Z76" s="10"/>
+    </row>
+    <row r="77" spans="1:31" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="14"/>
+      <c r="R77" s="14"/>
+      <c r="S77" s="14"/>
+      <c r="T77" s="14"/>
+      <c r="U77" s="15"/>
+      <c r="V77" s="14"/>
+      <c r="W77" s="14"/>
+      <c r="Z77" s="11"/>
+    </row>
+    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+      <c r="Y78"/>
+      <c r="Z78"/>
+      <c r="AA78"/>
+      <c r="AB78"/>
+      <c r="AC78"/>
+      <c r="AD78"/>
+      <c r="AE78"/>
+    </row>
+    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+      <c r="Y79"/>
+      <c r="Z79"/>
+      <c r="AA79"/>
+      <c r="AB79"/>
+      <c r="AC79"/>
+      <c r="AD79"/>
+      <c r="AE79"/>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+      <c r="Y80"/>
+      <c r="Z80"/>
+      <c r="AA80"/>
+      <c r="AB80"/>
+      <c r="AC80"/>
+      <c r="AD80"/>
+      <c r="AE80"/>
+    </row>
+    <row r="81" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+      <c r="Y81"/>
+      <c r="Z81"/>
+      <c r="AA81"/>
+      <c r="AB81"/>
+      <c r="AC81"/>
+      <c r="AD81"/>
+      <c r="AE81"/>
+    </row>
+    <row r="82" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+      <c r="Y82"/>
+      <c r="Z82"/>
+      <c r="AA82"/>
+      <c r="AB82"/>
+      <c r="AC82"/>
+      <c r="AD82"/>
+      <c r="AE82"/>
+    </row>
+    <row r="83" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+      <c r="AE83"/>
+    </row>
+    <row r="84" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+      <c r="AE84"/>
+    </row>
+    <row r="85" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+      <c r="AE85"/>
+    </row>
+    <row r="86" spans="7:31" x14ac:dyDescent="0.3">
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+      <c r="AE86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
